--- a/old_database/crypto/fastqFiles/fastq_0779.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_0779.xlsx
@@ -37,7 +37,7 @@
     <t>10.16.12</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_0779</t>
   </si>
   <si>
     <t>0779</t>
